--- a/src/04_SIMULATION/out/DRL-evaluation.xlsx
+++ b/src/04_SIMULATION/out/DRL-evaluation.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587261A6-4B6B-4005-9CEE-88322801EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24170F-9CC5-43A1-9B8B-3A5E0E3F39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="19335" windowHeight="13605" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
+    <workbookView xWindow="7950" yWindow="1965" windowWidth="19335" windowHeight="13605" firstSheet="1" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1230-1804" sheetId="1" r:id="rId1"/>
+    <sheet name="0104-2300" sheetId="2" r:id="rId2"/>
+    <sheet name="0105-2100" sheetId="3" r:id="rId3"/>
+    <sheet name="0106-2100" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>c.v. headway</t>
   </si>
@@ -48,9 +51,6 @@
     <t>RBT</t>
   </si>
   <si>
-    <t>ride time avg</t>
-  </si>
-  <si>
     <t>wait time average</t>
   </si>
   <si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>trip time (90th)</t>
+  </si>
+  <si>
+    <t>no control</t>
+  </si>
+  <si>
+    <t>even headway</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>wait time</t>
+  </si>
+  <si>
+    <t>ride time</t>
+  </si>
+  <si>
+    <t>replications</t>
+  </si>
+  <si>
+    <t>sum of wait times by hour</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>wait time for passengers arriving during hold time is counted as zero</t>
+  </si>
+  <si>
+    <t>% excess wait pax</t>
+  </si>
+  <si>
+    <t>max hold time is by alpha = 0.4</t>
+  </si>
+  <si>
+    <t>average load sd</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t>trip time 95th</t>
   </si>
 </sst>
 </file>
@@ -70,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +121,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,17 +198,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,25 +537,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E093AF7-EB54-4B44-B53D-12C0457FDBA1}">
-  <dimension ref="C3:G16"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>0.53</v>
       </c>
       <c r="F3" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <f>(F3-$E3)/$E3</f>
+        <v>-0.20754716981132082</v>
+      </c>
+      <c r="G4" s="2">
+        <f>(G3-$E3)/$E3</f>
+        <v>-7.5471698113207614E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4600</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4579</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <f>(F5-$E5)/$E5</f>
+        <v>-4.5652173913043482E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(G5-$E5)/$E5</f>
+        <v>-2.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1068.8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1068.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <f>(F7-$E7)/$E7</f>
+        <v>-3.6335767739608657E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(G7-$E7)/$E7</f>
+        <v>-3.6606257325759547E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>128.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>107.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f>(F9-$E9)/$E9</f>
+        <v>-0.15768930523028876</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(G9-$E9)/$E9</f>
+        <v>-0.20530835284933643</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>195.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>158.6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f>(F11-$E11)/$E11</f>
+        <v>-0.18749999999999997</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(G11-$E11)/$E11</f>
+        <v>-0.10399590163934418</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
+        <f>(F13-$E13)/$E13</f>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(G13-$E13)/$E13</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C4C5F-9FC9-4FA4-A467-751D7086300A}">
+  <dimension ref="B2:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.44</v>
       </c>
       <c r="G3" s="1">
@@ -501,7 +824,7 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
         <f>(F3-$E3)/$E3</f>
@@ -514,9 +837,9 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -531,7 +854,7 @@
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <f>(F5-$E5)/$E5</f>
@@ -544,157 +867,150 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>1186</v>
+        <v>1054.2</v>
       </c>
       <c r="F7" s="1">
-        <v>1200</v>
+        <v>1057.7</v>
       </c>
       <c r="G7" s="1">
-        <v>1206</v>
+        <v>1068.0999999999999</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
         <f>(F7-$E7)/$E7</f>
-        <v>1.1804384485666104E-2</v>
+        <v>3.3200531208499333E-3</v>
       </c>
       <c r="G8" s="3">
         <f>(G7-$E7)/$E7</f>
-        <v>1.6863406408094434E-2</v>
+        <v>1.3185353822803891E-2</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>33.700000000000003</v>
+        <v>104.8</v>
       </c>
       <c r="F9" s="1">
-        <v>31</v>
+        <v>95.2</v>
       </c>
       <c r="G9" s="1">
-        <v>30.2</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
         <f>(F9-$E9)/$E9</f>
-        <v>-8.0118694362017878E-2</v>
+        <v>-9.1603053435114448E-2</v>
       </c>
       <c r="G10" s="3">
         <f>(G9-$E9)/$E9</f>
-        <v>-0.10385756676557874</v>
+        <v>-8.5877862595419852E-2</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>168.9</v>
+        <v>178.7</v>
       </c>
       <c r="F11" s="1">
-        <v>165.8</v>
+        <v>165.6</v>
       </c>
       <c r="G11" s="1">
-        <v>162.1</v>
+        <v>167.4</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <f>(F11-$E11)/$E11</f>
-        <v>-1.8354055654233242E-2</v>
+        <v>-7.3307218802462201E-2</v>
       </c>
       <c r="G12" s="3">
         <f>(G11-$E11)/$E11</f>
-        <v>-4.0260509177027892E-2</v>
+        <v>-6.3234471180749763E-2</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1017</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>1034</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="1">
-        <v>1043</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
-        <v>1.6715830875122909E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="G14" s="3">
         <f>(G13-$E13)/$E13</f>
-        <v>2.5565388397246803E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3">
-        <f>(F15-$E15)/$E15</f>
-        <v>-0.25</v>
-      </c>
-      <c r="G16" s="3">
-        <f>(G15-$E15)/$E15</f>
-        <v>-0.7</v>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C15:C16"/>
+  <mergeCells count="6">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -703,5 +1019,595 @@
     <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C675F19D-301C-46DA-B336-7E710EC503D4}">
+  <dimension ref="B2:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <f>(F3-$E3)/$E3</f>
+        <v>-0.16981132075471703</v>
+      </c>
+      <c r="G4" s="2">
+        <f>(G3-$E3)/$E3</f>
+        <v>-0.13207547169811321</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4498</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4532</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <f>(F5-$E5)/$E5</f>
+        <v>7.5589150733659403E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(G5-$E5)/$E5</f>
+        <v>3.1124944419742106E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1054.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1057.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1068.0999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <f>(F7-$E7)/$E7</f>
+        <v>3.3200531208499333E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(G7-$E7)/$E7</f>
+        <v>1.3185353822803891E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f>(F9-$E9)/$E9</f>
+        <v>-9.1603053435114448E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(G9-$E9)/$E9</f>
+        <v>-8.5877862595419852E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>178.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>165.6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f>(F11-$E11)/$E11</f>
+        <v>-7.3307218802462201E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(G11-$E11)/$E11</f>
+        <v>-6.3234471180749763E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
+        <f>(F13-$E13)/$E13</f>
+        <v>-0.25</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(G13-$E13)/$E13</f>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E24032-F1AC-400D-911E-E277868FA085}">
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1">
+        <v>4497</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4521</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3">
+        <f>(F3-$E3)/$E3</f>
+        <v>5.3368912608405599E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>(G3-$E3)/$E3</f>
+        <v>1.8456748943740272E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <f>(G3-F3)/F3</f>
+        <v>1.3050210130502102E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <f>(F5-$E5)/$E5</f>
+        <v>-0.26415094339622641</v>
+      </c>
+      <c r="G6" s="2">
+        <f>(G5-$E5)/$E5</f>
+        <v>-0.30188679245283023</v>
+      </c>
+      <c r="H6" s="12">
+        <f>(G5-F5)/F5</f>
+        <v>-5.1282051282051329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1065</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1047</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <f>(F7-$E7)/$E7</f>
+        <v>-1.6901408450704224E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(G7-$E7)/$E7</f>
+        <v>-2.1596244131455399E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <f>(G7-F7)/F7</f>
+        <v>-4.7755491881566383E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>159</v>
+      </c>
+      <c r="F9" s="1">
+        <v>141</v>
+      </c>
+      <c r="G9" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f>(F9-$E9)/$E9</f>
+        <v>-0.11320754716981132</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(G9-$E9)/$E9</f>
+        <v>-0.15723270440251572</v>
+      </c>
+      <c r="H10" s="12">
+        <f>(G9-F9)/F9</f>
+        <v>-4.9645390070921988E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>178</v>
+      </c>
+      <c r="F11" s="1">
+        <v>155</v>
+      </c>
+      <c r="G11" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f>(F11-$E11)/$E11</f>
+        <v>-0.12921348314606743</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(G11-$E11)/$E11</f>
+        <v>-0.1404494382022472</v>
+      </c>
+      <c r="H12" s="12">
+        <f>(G11-F11)/F11</f>
+        <v>-1.2903225806451613E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
+        <f>(F13-$E13)/$E13</f>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(G13-$E13)/$E13</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3">
+        <f>(F15-$E15)/$E15</f>
+        <v>-0.21146953405017915</v>
+      </c>
+      <c r="G16" s="3">
+        <f>(G15-$E15)/$E15</f>
+        <v>-0.23835125448028674</v>
+      </c>
+      <c r="H16" s="12">
+        <f>(G15-F15)/F15</f>
+        <v>-3.4090909090909172E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>49.6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3">
+        <f>(F17-$E17)/$E17</f>
+        <v>-6.9418386491557141E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <f>(G17-$E17)/$E17</f>
+        <v>-7.6735459662288868E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <f>(G17-F17)/F17</f>
+        <v>-7.862903225806463E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/04_SIMULATION/out/DRL-evaluation.xlsx
+++ b/src/04_SIMULATION/out/DRL-evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24170F-9CC5-43A1-9B8B-3A5E0E3F39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F009A-5E10-43EA-9245-8139B6DA1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="1965" windowWidth="19335" windowHeight="13605" firstSheet="1" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
+    <workbookView xWindow="3120" yWindow="1875" windowWidth="19335" windowHeight="13605" firstSheet="1" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
   </bookViews>
   <sheets>
     <sheet name="1230-1804" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>c.v. headway</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>trip time 95th</t>
+  </si>
+  <si>
+    <t>DDQN-HA</t>
+  </si>
+  <si>
+    <t>DDQN-LA</t>
+  </si>
+  <si>
+    <t>rbt</t>
   </si>
 </sst>
 </file>
@@ -198,11 +207,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -210,18 +229,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,23 +565,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -579,8 +595,8 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
         <f>(F3-$E3)/$E3</f>
@@ -592,10 +608,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -609,8 +625,8 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <f>(F5-$E5)/$E5</f>
@@ -622,10 +638,10 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -639,8 +655,8 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
         <f>(F7-$E7)/$E7</f>
@@ -652,10 +668,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -669,8 +685,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
         <f>(F9-$E9)/$E9</f>
@@ -682,10 +698,10 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -699,8 +715,8 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <f>(F11-$E11)/$E11</f>
@@ -712,10 +728,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -729,8 +745,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
@@ -793,23 +809,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -823,8 +839,8 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
         <f>(F3-$E3)/$E3</f>
@@ -836,10 +852,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -853,8 +869,8 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <f>(F5-$E5)/$E5</f>
@@ -866,10 +882,10 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -883,8 +899,8 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
         <f>(F7-$E7)/$E7</f>
@@ -896,10 +912,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -913,8 +929,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
         <f>(F9-$E9)/$E9</f>
@@ -926,10 +942,10 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -943,8 +959,8 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <f>(F11-$E11)/$E11</f>
@@ -956,10 +972,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -973,8 +989,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
@@ -1011,12 +1027,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1037,23 +1053,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -1067,8 +1083,8 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
         <f>(F3-$E3)/$E3</f>
@@ -1080,10 +1096,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -1097,8 +1113,8 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <f>(F5-$E5)/$E5</f>
@@ -1110,10 +1126,10 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -1127,8 +1143,8 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
         <f>(F7-$E7)/$E7</f>
@@ -1140,10 +1156,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -1157,8 +1173,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
         <f>(F9-$E9)/$E9</f>
@@ -1170,10 +1186,10 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -1187,8 +1203,8 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <f>(F11-$E11)/$E11</f>
@@ -1200,10 +1216,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1217,8 +1233,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
@@ -1255,12 +1271,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1269,35 +1285,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E24032-F1AC-400D-911E-E277868FA085}">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>4497</v>
       </c>
@@ -1305,31 +1325,37 @@
         <v>4521</v>
       </c>
       <c r="G3" s="1">
+        <v>4525</v>
+      </c>
+      <c r="H3" s="1">
         <v>4580</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="11"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3">
         <f>(F3-$E3)/$E3</f>
         <v>5.3368912608405599E-3</v>
       </c>
-      <c r="G4" s="3">
-        <f>(G3-$E3)/$E3</f>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f>(H3-$E3)/$E3</f>
         <v>1.8456748943740272E-2</v>
       </c>
-      <c r="H4" s="12">
-        <f>(G3-F3)/F3</f>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9">
+        <f>(H3-F3)/F3</f>
         <v>1.3050210130502102E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -1339,31 +1365,37 @@
         <v>0.39</v>
       </c>
       <c r="G5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
         <f>(F5-$E5)/$E5</f>
         <v>-0.26415094339622641</v>
       </c>
-      <c r="G6" s="2">
-        <f>(G5-$E5)/$E5</f>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f>(H5-$E5)/$E5</f>
         <v>-0.30188679245283023</v>
       </c>
-      <c r="H6" s="12">
-        <f>(G5-F5)/F5</f>
+      <c r="I6" s="16"/>
+      <c r="J6" s="9">
+        <f>(H5-F5)/F5</f>
         <v>-5.1282051282051329E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -1373,31 +1405,37 @@
         <v>1047</v>
       </c>
       <c r="G7" s="1">
+        <v>1052</v>
+      </c>
+      <c r="H7" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
         <f>(F7-$E7)/$E7</f>
         <v>-1.6901408450704224E-2</v>
       </c>
-      <c r="G8" s="3">
-        <f>(G7-$E7)/$E7</f>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f>(H7-$E7)/$E7</f>
         <v>-2.1596244131455399E-2</v>
       </c>
-      <c r="H8" s="12">
-        <f>(G7-F7)/F7</f>
+      <c r="I8" s="15"/>
+      <c r="J8" s="9">
+        <f>(H7-F7)/F7</f>
         <v>-4.7755491881566383E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -1407,65 +1445,77 @@
         <v>141</v>
       </c>
       <c r="G9" s="1">
+        <v>137</v>
+      </c>
+      <c r="H9" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
         <f>(F9-$E9)/$E9</f>
         <v>-0.11320754716981132</v>
       </c>
-      <c r="G10" s="3">
-        <f>(G9-$E9)/$E9</f>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f>(H9-$E9)/$E9</f>
         <v>-0.15723270440251572</v>
       </c>
-      <c r="H10" s="12">
-        <f>(G9-F9)/F9</f>
+      <c r="I10" s="15"/>
+      <c r="J10" s="9">
+        <f>(H9-F9)/F9</f>
         <v>-4.9645390070921988E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>178</v>
       </c>
       <c r="F11" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" s="1">
+        <v>152</v>
+      </c>
+      <c r="H11" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <f>(F11-$E11)/$E11</f>
-        <v>-0.12921348314606743</v>
-      </c>
-      <c r="G12" s="3">
-        <f>(G11-$E11)/$E11</f>
+        <v>-0.12359550561797752</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f>(H11-$E11)/$E11</f>
         <v>-0.1404494382022472</v>
       </c>
-      <c r="H12" s="12">
-        <f>(G11-F11)/F11</f>
-        <v>-1.2903225806451613E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="9">
+        <f>(H11-F11)/F11</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1474,111 +1524,129 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="3">
-        <f>(G13-$E13)/$E13</f>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f>(H13-$E13)/$E13</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>5.58</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
+        <v>4.33</v>
+      </c>
+      <c r="H15" s="7">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3">
         <f>(F15-$E15)/$E15</f>
         <v>-0.21146953405017915</v>
       </c>
-      <c r="G16" s="3">
-        <f>(G15-$E15)/$E15</f>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f>(H15-$E15)/$E15</f>
         <v>-0.23835125448028674</v>
       </c>
-      <c r="H16" s="12">
-        <f>(G15-F15)/F15</f>
+      <c r="I16" s="15"/>
+      <c r="J16" s="9">
+        <f>(H15-F15)/F15</f>
         <v>-3.4090909090909172E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>53.3</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>49.6</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="H17" s="7">
         <v>49.21</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3">
         <f>(F17-$E17)/$E17</f>
         <v>-6.9418386491557141E-2</v>
       </c>
-      <c r="G18" s="3">
-        <f>(G17-$E17)/$E17</f>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f>(H17-$E17)/$E17</f>
         <v>-7.6735459662288868E-2</v>
       </c>
-      <c r="H18" s="12">
-        <f>(G17-F17)/F17</f>
+      <c r="I18" s="15"/>
+      <c r="J18" s="9">
+        <f>(H17-F17)/F17</f>
         <v>-7.862903225806463E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>0.15</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>0.17</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1586,12 +1654,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>

--- a/src/04_SIMULATION/out/DRL-evaluation.xlsx
+++ b/src/04_SIMULATION/out/DRL-evaluation.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodriguez.josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F009A-5E10-43EA-9245-8139B6DA1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A05001-DF68-4AB7-A9F4-0FAD1D56A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="19335" windowHeight="13605" firstSheet="1" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
   </bookViews>
   <sheets>
     <sheet name="1230-1804" sheetId="1" r:id="rId1"/>
     <sheet name="0104-2300" sheetId="2" r:id="rId2"/>
     <sheet name="0105-2100" sheetId="3" r:id="rId3"/>
     <sheet name="0106-2100" sheetId="7" r:id="rId4"/>
+    <sheet name="paper" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>c.v. headway</t>
   </si>
@@ -112,6 +113,57 @@
   </si>
   <si>
     <t>rbt</t>
+  </si>
+  <si>
+    <t>max hold time is by omega = 0.4</t>
+  </si>
+  <si>
+    <t>mean ride time</t>
+  </si>
+  <si>
+    <t>mean wait time</t>
+  </si>
+  <si>
+    <t>0106-1428</t>
+  </si>
+  <si>
+    <t>0106-1554</t>
+  </si>
+  <si>
+    <t>0122-1453</t>
+  </si>
+  <si>
+    <t>0106-1914</t>
+  </si>
+  <si>
+    <t>sensitivity to variability</t>
+  </si>
+  <si>
+    <t>reduce everything by 20%</t>
+  </si>
+  <si>
+    <t>hold time per trip</t>
+  </si>
+  <si>
+    <t>decrease variability by 40%</t>
+  </si>
+  <si>
+    <t>0127-1742</t>
+  </si>
+  <si>
+    <t>0127-1824</t>
+  </si>
+  <si>
+    <t>0127-1825</t>
+  </si>
+  <si>
+    <t>0127-1907</t>
+  </si>
+  <si>
+    <t>0127-1842</t>
+  </si>
+  <si>
+    <t>0127-1841</t>
   </si>
 </sst>
 </file>
@@ -222,6 +274,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -231,13 +290,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +630,7 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -595,7 +647,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
@@ -608,7 +660,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -625,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -638,7 +690,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -655,7 +707,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -668,7 +720,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -685,7 +737,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -698,7 +750,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -715,7 +767,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
@@ -728,7 +780,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -745,7 +797,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
@@ -822,7 +874,7 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -839,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
@@ -852,7 +904,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -869,7 +921,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -882,7 +934,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -899,7 +951,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -912,7 +964,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -929,7 +981,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -942,7 +994,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -959,7 +1011,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
@@ -972,7 +1024,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -989,7 +1041,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
@@ -1066,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1083,7 +1135,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
@@ -1096,7 +1148,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1113,7 +1165,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -1126,7 +1178,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1143,7 +1195,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -1156,7 +1208,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1173,7 +1225,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -1186,7 +1238,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1203,7 +1255,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
@@ -1216,7 +1268,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1233,7 +1285,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
@@ -1287,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E24032-F1AC-400D-911E-E277868FA085}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1311,10 +1363,10 @@
       <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="4"/>
@@ -1330,10 +1382,10 @@
       <c r="H3" s="1">
         <v>4580</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3">
@@ -1345,14 +1397,14 @@
         <f>(H3-$E3)/$E3</f>
         <v>1.8456748943740272E-2</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="9">
         <f>(H3-F3)/F3</f>
         <v>1.3050210130502102E-2</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1370,10 +1422,10 @@
       <c r="H5" s="1">
         <v>0.37</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -1385,14 +1437,14 @@
         <f>(H5-$E5)/$E5</f>
         <v>-0.30188679245283023</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="9">
         <f>(H5-F5)/F5</f>
         <v>-5.1282051282051329E-2</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1410,10 +1462,10 @@
       <c r="H7" s="1">
         <v>1042</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -1425,14 +1477,14 @@
         <f>(H7-$E7)/$E7</f>
         <v>-2.1596244131455399E-2</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="9">
         <f>(H7-F7)/F7</f>
         <v>-4.7755491881566383E-3</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1450,10 +1502,10 @@
       <c r="H9" s="1">
         <v>134</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -1465,14 +1517,14 @@
         <f>(H9-$E9)/$E9</f>
         <v>-0.15723270440251572</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="9">
         <f>(H9-F9)/F9</f>
         <v>-4.9645390070921988E-2</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1490,10 +1542,10 @@
       <c r="H11" s="1">
         <v>153</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
@@ -1505,14 +1557,14 @@
         <f>(H11-$E11)/$E11</f>
         <v>-0.1404494382022472</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="9">
         <f>(H11-F11)/F11</f>
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1528,10 +1580,10 @@
       <c r="H13" s="1">
         <v>3.5</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3">
@@ -1543,10 +1595,10 @@
         <f>(H13-$E13)/$E13</f>
         <v>0.75</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1564,10 +1616,10 @@
       <c r="H15" s="7">
         <v>4.25</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3">
@@ -1579,14 +1631,14 @@
         <f>(H15-$E15)/$E15</f>
         <v>-0.23835125448028674</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="9">
         <f>(H15-F15)/F15</f>
         <v>-3.4090909090909172E-2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1604,10 +1656,10 @@
       <c r="H17" s="7">
         <v>49.21</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3">
@@ -1619,7 +1671,7 @@
         <f>(H17-$E17)/$E17</f>
         <v>-7.6735459662288868E-2</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="9">
         <f>(H17-F17)/F17</f>
         <v>-7.862903225806463E-3</v>
@@ -1678,4 +1730,777 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA58E315-93F2-446F-A67C-010CD8AE3B6F}">
+  <dimension ref="B3:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="L5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <f>(F5-$E5)/$E5</f>
+        <v>-0.24528301886792453</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f>(H5-$E5)/$E5</f>
+        <v>-0.30188679245283023</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2">
+        <f>(O5-$E5)/$E5</f>
+        <v>-0.35849056603773582</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <f>(Q5-$E5)/$E5</f>
+        <v>-0.41509433962264153</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="2">
+        <f>(W5-$E5)/$E5</f>
+        <v>-0.43396226415094347</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
+        <f>(Y5-$E5)/$E5</f>
+        <v>-0.58490566037735858</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>887</v>
+      </c>
+      <c r="F7" s="1">
+        <v>890</v>
+      </c>
+      <c r="G7" s="1">
+        <v>900</v>
+      </c>
+      <c r="H7" s="1">
+        <v>889</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="L7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>876</v>
+      </c>
+      <c r="O7" s="1">
+        <v>880</v>
+      </c>
+      <c r="P7" s="1">
+        <v>899</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>885</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>857</v>
+      </c>
+      <c r="W7" s="1">
+        <v>861</v>
+      </c>
+      <c r="X7" s="1">
+        <v>880</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <f>(F7-$E7)/$E7</f>
+        <v>3.3821871476888386E-3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f>(H7-$E7)/$E7</f>
+        <v>2.2547914317925591E-3</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3">
+        <f>(O7-$E7)/$E7</f>
+        <v>-7.8917700112739568E-3</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <f>(Q7-$E7)/$E7</f>
+        <v>-2.2547914317925591E-3</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="3">
+        <f>(W7-$E7)/$E7</f>
+        <v>-2.9312288613303268E-2</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3">
+        <f>(Y7-$E7)/$E7</f>
+        <v>-2.2547914317925591E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>159</v>
+      </c>
+      <c r="F9" s="1">
+        <v>141</v>
+      </c>
+      <c r="G9" s="1">
+        <v>137</v>
+      </c>
+      <c r="H9" s="1">
+        <v>134</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="L9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>155</v>
+      </c>
+      <c r="O9" s="1">
+        <v>120</v>
+      </c>
+      <c r="P9" s="1">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>118</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>149</v>
+      </c>
+      <c r="W9" s="1">
+        <v>110</v>
+      </c>
+      <c r="X9" s="1">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f>(F9-$E9)/$E9</f>
+        <v>-0.11320754716981132</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f>(H9-$E9)/$E9</f>
+        <v>-0.15723270440251572</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3">
+        <f>(O9-$E9)/$E9</f>
+        <v>-0.24528301886792453</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
+        <f>(Q9-$E9)/$E9</f>
+        <v>-0.25786163522012578</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="3">
+        <f>(W9-$E9)/$E9</f>
+        <v>-0.3081761006289308</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3">
+        <f>(Y9-$E9)/$E9</f>
+        <v>-0.3522012578616352</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>178</v>
+      </c>
+      <c r="F11" s="1">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1">
+        <v>153</v>
+      </c>
+      <c r="H11" s="1">
+        <v>152</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="L11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>175</v>
+      </c>
+      <c r="O11" s="1">
+        <v>150</v>
+      </c>
+      <c r="P11" s="1">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>145</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>168</v>
+      </c>
+      <c r="W11" s="1">
+        <v>147</v>
+      </c>
+      <c r="X11" s="1">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f>(F11-$E11)/$E11</f>
+        <v>-0.12359550561797752</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f>(H11-$E11)/$E11</f>
+        <v>-0.14606741573033707</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3">
+        <f>(O11-$E11)/$E11</f>
+        <v>-0.15730337078651685</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
+        <f>(Q11-$E11)/$E11</f>
+        <v>-0.1853932584269663</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="3">
+        <f>(W11-$E11)/$E11</f>
+        <v>-0.17415730337078653</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3">
+        <f>(Y11-$E11)/$E11</f>
+        <v>-0.24157303370786518</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="L13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>73</v>
+      </c>
+      <c r="P13" s="1">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>94</v>
+      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
+        <f>(F13-$E13)/$E13</f>
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f>(H13-$E13)/$E13</f>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4.33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3">
+        <f>(F15-$E15)/$E15</f>
+        <v>-0.21146953405017915</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f>(H15-$E15)/$E15</f>
+        <v>-0.23835125448028674</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>49.21</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3">
+        <f>(F17-$E17)/$E17</f>
+        <v>-6.9418386491557141E-2</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f>(H17-$E17)/$E17</f>
+        <v>-7.6735459662288868E-2</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/04_SIMULATION/out/DRL-evaluation.xlsx
+++ b/src/04_SIMULATION/out/DRL-evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodriguez.josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A05001-DF68-4AB7-A9F4-0FAD1D56A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DA93A-E32B-4B91-BF44-11AF751F3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
   </bookViews>
   <sheets>
     <sheet name="1230-1804" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>c.v. headway</t>
   </si>
@@ -197,12 +197,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -259,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -290,6 +296,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E24032-F1AC-400D-911E-E277868FA085}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1386,22 +1409,13 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3">
-        <f>(F3-$E3)/$E3</f>
-        <v>5.3368912608405599E-3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <f>(H3-$E3)/$E3</f>
-        <v>1.8456748943740272E-2</v>
-      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="9">
-        <f>(H3-F3)/F3</f>
-        <v>1.3050210130502102E-2</v>
-      </c>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
@@ -1426,22 +1440,22 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <f>(F5-$E5)/$E5</f>
-        <v>-0.26415094339622641</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <f>(H5-$E5)/$E5</f>
-        <v>-0.30188679245283023</v>
-      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22">
+        <f>(E5-$H5)/E5</f>
+        <v>0.30188679245283023</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:G6" si="0">(F5-$H5)/F5</f>
+        <v>5.1282051282051329E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>5.1282051282051329E-2</v>
+      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="9">
-        <f>(H5-F5)/F5</f>
-        <v>-5.1282051282051329E-2</v>
-      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
@@ -1466,22 +1480,25 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3">
-        <f>(F7-$E7)/$E7</f>
-        <v>-1.6901408450704224E-2</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19">
+        <f>(E7-$H7)/E7</f>
+        <v>2.1596244131455399E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" ref="F8" si="1">(F7-$H7)/F7</f>
+        <v>4.7755491881566383E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" ref="G8" si="2">(G7-$H7)/G7</f>
+        <v>9.5057034220532317E-3</v>
+      </c>
+      <c r="H8" s="19">
         <f>(H7-$E7)/$E7</f>
         <v>-2.1596244131455399E-2</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="9">
-        <f>(H7-F7)/F7</f>
-        <v>-4.7755491881566383E-3</v>
-      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
@@ -1506,22 +1523,25 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3">
-        <f>(F9-$E9)/$E9</f>
-        <v>-0.11320754716981132</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="D10" s="20"/>
+      <c r="E10" s="22">
+        <f>(E9-$H9)/E9</f>
+        <v>0.15723270440251572</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10" si="3">(F9-$H9)/F9</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" ref="G10" si="4">(G9-$H9)/G9</f>
+        <v>2.1897810218978103E-2</v>
+      </c>
+      <c r="H10" s="19">
         <f>(H9-$E9)/$E9</f>
         <v>-0.15723270440251572</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="9">
-        <f>(H9-F9)/F9</f>
-        <v>-4.9645390070921988E-2</v>
-      </c>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
@@ -1546,22 +1566,25 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3">
-        <f>(F11-$E11)/$E11</f>
-        <v>-0.12359550561797752</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="D12" s="20"/>
+      <c r="E12" s="22">
+        <f>(E11-$H11)/E11</f>
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" ref="F12" si="5">(F11-$H11)/F11</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" ref="G12" si="6">(G11-$H11)/G11</f>
+        <v>-6.5789473684210523E-3</v>
+      </c>
+      <c r="H12" s="19">
         <f>(H11-$E11)/$E11</f>
         <v>-0.1404494382022472</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="9">
-        <f>(H11-F11)/F11</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
@@ -1584,14 +1607,14 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19">
         <f>(F13-$E13)/$E13</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
         <f>(H13-$E13)/$E13</f>
         <v>0.75</v>
       </c>
@@ -1620,22 +1643,25 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3">
-        <f>(F15-$E15)/$E15</f>
-        <v>-0.21146953405017915</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="D16" s="20"/>
+      <c r="E16" s="22">
+        <f>(E15-$H15)/E15</f>
+        <v>0.23835125448028674</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" ref="F16" si="7">(F15-$H15)/F15</f>
+        <v>3.4090909090909172E-2</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" ref="G16" si="8">(G15-$H15)/G15</f>
+        <v>1.8475750577367223E-2</v>
+      </c>
+      <c r="H16" s="19">
         <f>(H15-$E15)/$E15</f>
         <v>-0.23835125448028674</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="9">
-        <f>(H15-F15)/F15</f>
-        <v>-3.4090909090909172E-2</v>
-      </c>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
@@ -1660,59 +1686,99 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3">
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19">
         <f>(F17-$E17)/$E17</f>
         <v>-6.9418386491557141E-2</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19">
         <f>(H17-$E17)/$E17</f>
         <v>-7.6735459662288868E-2</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="9">
-        <f>(H17-F17)/F17</f>
-        <v>-7.862903225806463E-3</v>
-      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25">
+        <f>E7-E11</f>
+        <v>887</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" ref="F19:H19" si="9">F7-F11</f>
+        <v>891</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="9"/>
+        <v>889</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22">
+        <f>(E19-$H19)/E19</f>
+        <v>-2.2547914317925591E-3</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" ref="F20" si="10">(F19-$H19)/F19</f>
+        <v>2.2446689113355782E-3</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" ref="G20" si="11">(G19-$H19)/G19</f>
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E21" s="6">
         <v>0.15</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F21" s="6">
         <v>0.17</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1736,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA58E315-93F2-446F-A67C-010CD8AE3B6F}">
   <dimension ref="B3:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2478,13 +2544,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="L5:L6"/>
@@ -2499,6 +2558,13 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/04_SIMULATION/out/DRL-evaluation.xlsx
+++ b/src/04_SIMULATION/out/DRL-evaluation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodriguez.josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DA93A-E32B-4B91-BF44-11AF751F3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F77163-11F3-4028-B977-6B3184376613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
+    <workbookView xWindow="2835" yWindow="780" windowWidth="19335" windowHeight="13605" firstSheet="1" activeTab="4" xr2:uid="{A2716F69-78C7-E340-97E4-6E59097C12BF}"/>
   </bookViews>
   <sheets>
     <sheet name="1230-1804" sheetId="1" r:id="rId1"/>
     <sheet name="0104-2300" sheetId="2" r:id="rId2"/>
     <sheet name="0105-2100" sheetId="3" r:id="rId3"/>
     <sheet name="0106-2100" sheetId="7" r:id="rId4"/>
-    <sheet name="paper" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>c.v. headway</t>
   </si>
@@ -115,55 +115,7 @@
     <t>rbt</t>
   </si>
   <si>
-    <t>max hold time is by omega = 0.4</t>
-  </si>
-  <si>
-    <t>mean ride time</t>
-  </si>
-  <si>
-    <t>mean wait time</t>
-  </si>
-  <si>
-    <t>0106-1428</t>
-  </si>
-  <si>
-    <t>0106-1554</t>
-  </si>
-  <si>
-    <t>0122-1453</t>
-  </si>
-  <si>
-    <t>0106-1914</t>
-  </si>
-  <si>
-    <t>sensitivity to variability</t>
-  </si>
-  <si>
-    <t>reduce everything by 20%</t>
-  </si>
-  <si>
-    <t>hold time per trip</t>
-  </si>
-  <si>
-    <t>decrease variability by 40%</t>
-  </si>
-  <si>
-    <t>0127-1742</t>
-  </si>
-  <si>
-    <t>0127-1824</t>
-  </si>
-  <si>
-    <t>0127-1825</t>
-  </si>
-  <si>
-    <t>0127-1907</t>
-  </si>
-  <si>
-    <t>0127-1842</t>
-  </si>
-  <si>
-    <t>0127-1841</t>
+    <t>700.3441748924997, 308.38055620582236, 310.14881865833013, 32.14005240644474, 84.64889658600805, 389.0324084645217, 300.8023997240307, 142.38345849622056, 512.5028534890625, 35.74282900</t>
   </si>
 </sst>
 </file>
@@ -197,18 +149,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -265,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -296,23 +242,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E24032-F1AC-400D-911E-E277868FA085}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1409,13 +1338,22 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3">
+        <f>(F3-$E3)/$E3</f>
+        <v>5.3368912608405599E-3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f>(H3-$E3)/$E3</f>
+        <v>1.8456748943740272E-2</v>
+      </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <f>(H3-F3)/F3</f>
+        <v>1.3050210130502102E-2</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
@@ -1440,22 +1378,22 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22">
-        <f>(E5-$H5)/E5</f>
-        <v>0.30188679245283023</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" ref="F6:G6" si="0">(F5-$H5)/F5</f>
-        <v>5.1282051282051329E-2</v>
-      </c>
-      <c r="G6" s="22">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051329E-2</v>
-      </c>
-      <c r="H6" s="22"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <f>(F5-$E5)/$E5</f>
+        <v>-0.26415094339622641</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f>(H5-$E5)/$E5</f>
+        <v>-0.30188679245283023</v>
+      </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <f>(H5-F5)/F5</f>
+        <v>-5.1282051282051329E-2</v>
+      </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
@@ -1480,25 +1418,22 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19">
-        <f>(E7-$H7)/E7</f>
-        <v>2.1596244131455399E-2</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" ref="F8" si="1">(F7-$H7)/F7</f>
-        <v>4.7755491881566383E-3</v>
-      </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G8" si="2">(G7-$H7)/G7</f>
-        <v>9.5057034220532317E-3</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <f>(F7-$E7)/$E7</f>
+        <v>-1.6901408450704224E-2</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f>(H7-$E7)/$E7</f>
         <v>-2.1596244131455399E-2</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9">
+        <f>(H7-F7)/F7</f>
+        <v>-4.7755491881566383E-3</v>
+      </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
@@ -1523,25 +1458,22 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22">
-        <f>(E9-$H9)/E9</f>
-        <v>0.15723270440251572</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" ref="F10" si="3">(F9-$H9)/F9</f>
-        <v>4.9645390070921988E-2</v>
-      </c>
-      <c r="G10" s="22">
-        <f t="shared" ref="G10" si="4">(G9-$H9)/G9</f>
-        <v>2.1897810218978103E-2</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f>(F9-$E9)/$E9</f>
+        <v>-0.11320754716981132</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f>(H9-$E9)/$E9</f>
         <v>-0.15723270440251572</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9">
+        <f>(H9-F9)/F9</f>
+        <v>-4.9645390070921988E-2</v>
+      </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
@@ -1566,25 +1498,22 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22">
-        <f>(E11-$H11)/E11</f>
-        <v>0.1404494382022472</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" ref="F12" si="5">(F11-$H11)/F11</f>
-        <v>1.9230769230769232E-2</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" ref="G12" si="6">(G11-$H11)/G11</f>
-        <v>-6.5789473684210523E-3</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f>(F11-$E11)/$E11</f>
+        <v>-0.12359550561797752</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <f>(H11-$E11)/$E11</f>
         <v>-0.1404494382022472</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9">
+        <f>(H11-F11)/F11</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
@@ -1607,14 +1536,14 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19">
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
         <f>(F13-$E13)/$E13</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <f>(H13-$E13)/$E13</f>
         <v>0.75</v>
       </c>
@@ -1643,25 +1572,22 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22">
-        <f>(E15-$H15)/E15</f>
-        <v>0.23835125448028674</v>
-      </c>
-      <c r="F16" s="22">
-        <f t="shared" ref="F16" si="7">(F15-$H15)/F15</f>
-        <v>3.4090909090909172E-2</v>
-      </c>
-      <c r="G16" s="22">
-        <f t="shared" ref="G16" si="8">(G15-$H15)/G15</f>
-        <v>1.8475750577367223E-2</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3">
+        <f>(F15-$E15)/$E15</f>
+        <v>-0.21146953405017915</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <f>(H15-$E15)/$E15</f>
         <v>-0.23835125448028674</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9">
+        <f>(H15-F15)/F15</f>
+        <v>-3.4090909090909172E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
@@ -1686,99 +1612,59 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19">
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3">
         <f>(F17-$E17)/$E17</f>
         <v>-6.9418386491557141E-2</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <f>(H17-$E17)/$E17</f>
         <v>-7.6735459662288868E-2</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9">
+        <f>(H17-F17)/F17</f>
+        <v>-7.862903225806463E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25">
-        <f>E7-E11</f>
-        <v>887</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" ref="F19:H19" si="9">F7-F11</f>
-        <v>891</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" si="9"/>
-        <v>900</v>
-      </c>
-      <c r="H19" s="25">
-        <f t="shared" si="9"/>
-        <v>889</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22">
-        <f>(E19-$H19)/E19</f>
-        <v>-2.2547914317925591E-3</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" ref="F20" si="10">(F19-$H19)/F19</f>
-        <v>2.2446689113355782E-3</v>
-      </c>
-      <c r="G20" s="22">
-        <f t="shared" ref="G20" si="11">(G19-$H19)/G19</f>
-        <v>1.2222222222222223E-2</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I21" s="6"/>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1799,774 +1685,90 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA58E315-93F2-446F-A67C-010CD8AE3B6F}">
-  <dimension ref="B3:Y24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3499A31-43A7-451D-9E15-805B4F373249}">
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>28</v>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="L5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <f>(F5-$E5)/$E5</f>
-        <v>-0.24528301886792453</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <f>(H5-$E5)/$E5</f>
-        <v>-0.30188679245283023</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2">
-        <f>(O5-$E5)/$E5</f>
-        <v>-0.35849056603773582</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
-        <f>(Q5-$E5)/$E5</f>
-        <v>-0.41509433962264153</v>
-      </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="2">
-        <f>(W5-$E5)/$E5</f>
-        <v>-0.43396226415094347</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <f>(Y5-$E5)/$E5</f>
-        <v>-0.58490566037735858</v>
-      </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>887</v>
-      </c>
-      <c r="F7" s="1">
-        <v>890</v>
-      </c>
-      <c r="G7" s="1">
-        <v>900</v>
-      </c>
-      <c r="H7" s="1">
-        <v>889</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="L7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>876</v>
-      </c>
-      <c r="O7" s="1">
-        <v>880</v>
-      </c>
-      <c r="P7" s="1">
-        <v>899</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>885</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1">
-        <v>857</v>
-      </c>
-      <c r="W7" s="1">
-        <v>861</v>
-      </c>
-      <c r="X7" s="1">
-        <v>880</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3">
-        <f>(F7-$E7)/$E7</f>
-        <v>3.3821871476888386E-3</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <f>(H7-$E7)/$E7</f>
-        <v>2.2547914317925591E-3</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3">
-        <f>(O7-$E7)/$E7</f>
-        <v>-7.8917700112739568E-3</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>(Q7-$E7)/$E7</f>
-        <v>-2.2547914317925591E-3</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="3">
-        <f>(W7-$E7)/$E7</f>
-        <v>-2.9312288613303268E-2</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3">
-        <f>(Y7-$E7)/$E7</f>
-        <v>-2.2547914317925591E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>159</v>
-      </c>
-      <c r="F9" s="1">
-        <v>141</v>
-      </c>
-      <c r="G9" s="1">
-        <v>137</v>
-      </c>
-      <c r="H9" s="1">
-        <v>134</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="L9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>155</v>
-      </c>
-      <c r="O9" s="1">
-        <v>120</v>
-      </c>
-      <c r="P9" s="1">
-        <v>117</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>118</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="1">
-        <v>149</v>
-      </c>
-      <c r="W9" s="1">
-        <v>110</v>
-      </c>
-      <c r="X9" s="1">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3">
-        <f>(F9-$E9)/$E9</f>
-        <v>-0.11320754716981132</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <f>(H9-$E9)/$E9</f>
-        <v>-0.15723270440251572</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="3">
-        <f>(O9-$E9)/$E9</f>
-        <v>-0.24528301886792453</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <f>(Q9-$E9)/$E9</f>
-        <v>-0.25786163522012578</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="3">
-        <f>(W9-$E9)/$E9</f>
-        <v>-0.3081761006289308</v>
-      </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3">
-        <f>(Y9-$E9)/$E9</f>
-        <v>-0.3522012578616352</v>
-      </c>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>178</v>
-      </c>
-      <c r="F11" s="1">
-        <v>156</v>
-      </c>
-      <c r="G11" s="1">
-        <v>153</v>
-      </c>
-      <c r="H11" s="1">
-        <v>152</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="L11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>175</v>
-      </c>
-      <c r="O11" s="1">
-        <v>150</v>
-      </c>
-      <c r="P11" s="1">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>145</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="1">
-        <v>168</v>
-      </c>
-      <c r="W11" s="1">
-        <v>147</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="C4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>745</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>138</v>
+      </c>
+      <c r="C6">
         <v>142</v>
       </c>
-      <c r="Y11" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3">
-        <f>(F11-$E11)/$E11</f>
-        <v>-0.12359550561797752</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <f>(H11-$E11)/$E11</f>
-        <v>-0.14606741573033707</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="3">
-        <f>(O11-$E11)/$E11</f>
-        <v>-0.15730337078651685</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3">
-        <f>(Q11-$E11)/$E11</f>
-        <v>-0.1853932584269663</v>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="3">
-        <f>(W11-$E11)/$E11</f>
-        <v>-0.17415730337078653</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3">
-        <f>(Y11-$E11)/$E11</f>
-        <v>-0.24157303370786518</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="L13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <v>73</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>94</v>
-      </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3">
-        <f>(F13-$E13)/$E13</f>
-        <v>-0.8571428571428571</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <f>(H13-$E13)/$E13</f>
-        <v>-0.2857142857142857</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.58</v>
-      </c>
-      <c r="F15" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G15" s="7">
-        <v>4.33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4.25</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3">
-        <f>(F15-$E15)/$E15</f>
-        <v>-0.21146953405017915</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <f>(H15-$E15)/$E15</f>
-        <v>-0.23835125448028674</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>53.3</v>
-      </c>
-      <c r="F17" s="7">
-        <v>49.6</v>
-      </c>
-      <c r="G17" s="7">
-        <v>47.8</v>
-      </c>
-      <c r="H17" s="7">
-        <v>49.21</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3">
-        <f>(F17-$E17)/$E17</f>
-        <v>-6.9418386491557141E-2</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <f>(H17-$E17)/$E17</f>
-        <v>-7.6735459662288868E-2</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="L19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V19" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>266</v>
+      </c>
+      <c r="C8">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>25</v>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>AVERAGE(B2:B9)</f>
+        <v>235.5</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(C2:C9)</f>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>